--- a/заказы/филиалы и опт/2025/01,25/27,01,25 Ост СЫР филиалы/заказ СЫРЫ от 29,01,25 на 03,02,25.xlsx
+++ b/заказы/филиалы и опт/2025/01,25/27,01,25 Ост СЫР филиалы/заказ СЫРЫ от 29,01,25 на 03,02,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\27,01,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2025\01,25\27,01,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE1809-2211-4010-ABAF-40A97CD386BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D922C-DDD8-40C5-A95D-5B2B2A083AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1528,14 +1528,14 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F34" si="3">D28/C28</f>
         <v>87</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H34" si="4">G28*D28</f>
         <v>52.2</v>
       </c>
       <c r="I28" s="11"/>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="G29" s="2">
         <v>0.1</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="4"/>
         <v>43.800000000000004</v>
       </c>
       <c r="I29" s="11"/>
@@ -1580,14 +1580,14 @@
       <c r="D30" s="34"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.1</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -1605,14 +1605,14 @@
       <c r="D31" s="34"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>D31/C31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
       </c>
       <c r="H31" s="11">
-        <f>G31*D31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31" s="11"/>
@@ -1630,14 +1630,14 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f>D32/C32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="11">
-        <f>G32*D32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -1657,14 +1657,14 @@
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f>D33/C33</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="11">
-        <f>G33*D33</f>
+        <f t="shared" si="4"/>
         <v>42.56</v>
       </c>
       <c r="I33" s="11"/>
@@ -1684,14 +1684,14 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="I34" s="11"/>
@@ -1718,7 +1718,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" ref="H35:H37" si="3">E35</f>
+        <f t="shared" ref="H35:H37" si="5">E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="18" t="s">
@@ -1745,7 +1745,7 @@
         <v>1.3</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -1772,7 +1772,7 @@
         <v>3.2</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -1794,14 +1794,14 @@
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" ref="F38:F44" si="6">D38/C38</f>
         <v>36</v>
       </c>
       <c r="G38" s="2">
         <v>0.4</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" ref="H38:H43" si="7">G38*D38</f>
         <v>115.2</v>
       </c>
       <c r="I38" s="11"/>
@@ -1821,14 +1821,14 @@
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G39" s="2">
         <v>0.4</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="7"/>
         <v>11.200000000000001</v>
       </c>
       <c r="I39" s="11"/>
@@ -1848,14 +1848,14 @@
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="7"/>
         <v>169.92</v>
       </c>
       <c r="I40" s="11"/>
@@ -1875,14 +1875,14 @@
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="G41" s="2">
         <v>0.18</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="7"/>
         <v>37.44</v>
       </c>
       <c r="I41" s="11"/>
@@ -1902,14 +1902,14 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="G42" s="2">
         <v>0.18</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="7"/>
         <v>48.96</v>
       </c>
       <c r="I42" s="11"/>
@@ -1929,14 +1929,14 @@
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G43" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="7"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="I43" s="11"/>
@@ -1954,7 +1954,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -2004,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD90E25-9C35-46B4-B06E-E9A74D3DB08C}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2733,14 +2733,14 @@
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F34" si="3">D28/C28</f>
         <v>124</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H34" si="4">G28*D28</f>
         <v>74.400000000000006</v>
       </c>
       <c r="I28" s="11"/>
@@ -2760,14 +2760,14 @@
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
       <c r="G29" s="2">
         <v>0.1</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="4"/>
         <v>100.2</v>
       </c>
       <c r="I29" s="11"/>
@@ -2787,14 +2787,14 @@
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G30" s="2">
         <v>0.1</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="4"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="I30" s="11"/>
@@ -2814,14 +2814,14 @@
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="11">
-        <f>D31/C31</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
       </c>
       <c r="H31" s="11">
-        <f>G31*D31</f>
+        <f t="shared" si="4"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="I31" s="11"/>
@@ -2839,14 +2839,14 @@
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="11">
-        <f>D32/C32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="11">
-        <f>G32*D32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -2866,14 +2866,14 @@
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="11">
-        <f>D33/C33</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="11">
-        <f>G33*D33</f>
+        <f t="shared" si="4"/>
         <v>20.160000000000004</v>
       </c>
       <c r="I33" s="11"/>
@@ -2893,14 +2893,14 @@
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" si="4"/>
         <v>7.56</v>
       </c>
       <c r="I34" s="11"/>
@@ -2927,7 +2927,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" ref="H35:H37" si="3">E35</f>
+        <f t="shared" ref="H35:H37" si="5">E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="18" t="s">
@@ -2954,7 +2954,7 @@
         <v>1.3</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -2983,7 +2983,7 @@
         <v>3.2</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -3003,14 +3003,14 @@
       <c r="D38" s="34"/>
       <c r="E38" s="35"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" ref="F38:F44" si="6">D38/C38</f>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.4</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" ref="H38:H43" si="7">G38*D38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -3028,14 +3028,14 @@
       <c r="D39" s="34"/>
       <c r="E39" s="35"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.4</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -3055,14 +3055,14 @@
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="7"/>
         <v>48.96</v>
       </c>
       <c r="I40" s="11"/>
@@ -3082,14 +3082,14 @@
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G41" s="2">
         <v>0.18</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="7"/>
         <v>14.399999999999999</v>
       </c>
       <c r="I41" s="11"/>
@@ -3107,14 +3107,14 @@
       <c r="D42" s="34"/>
       <c r="E42" s="35"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.18</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -3132,14 +3132,14 @@
       <c r="D43" s="34"/>
       <c r="E43" s="35"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -3157,7 +3157,7 @@
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -3195,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B9A0F6-2D44-445D-BD8A-2B7BEB857C9F}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3912,14 +3912,14 @@
       <c r="D28" s="34"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F34" si="3">D28/C28</f>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H34" si="4">G28*D28</f>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -3937,14 +3937,14 @@
       <c r="D29" s="34"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.1</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -3964,14 +3964,14 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G30" s="2">
         <v>0.1</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="4"/>
         <v>6.4</v>
       </c>
       <c r="I30" s="11"/>
@@ -3989,14 +3989,14 @@
       <c r="D31" s="34"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>D31/C31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
       </c>
       <c r="H31" s="11">
-        <f>G31*D31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31" s="11"/>
@@ -4014,14 +4014,14 @@
       <c r="D32" s="35"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f>D32/C32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="11">
-        <f>G32*D32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -4039,14 +4039,14 @@
       <c r="D33" s="34"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f>D33/C33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="11">
-        <f>G33*D33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
@@ -4064,14 +4064,14 @@
       <c r="D34" s="34"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -4098,7 +4098,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" ref="H35:H37" si="3">E35</f>
+        <f t="shared" ref="H35:H37" si="5">E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="18" t="s">
@@ -4125,7 +4125,7 @@
         <v>1.3</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -4152,7 +4152,7 @@
         <v>3.2</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -4174,14 +4174,14 @@
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" ref="F38:F44" si="6">D38/C38</f>
         <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>0.4</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" ref="H38:H43" si="7">G38*D38</f>
         <v>3.2</v>
       </c>
       <c r="I38" s="11"/>
@@ -4199,14 +4199,14 @@
       <c r="D39" s="34"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.4</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -4226,14 +4226,14 @@
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="7"/>
         <v>5.76</v>
       </c>
       <c r="I40" s="11"/>
@@ -4253,14 +4253,14 @@
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G41" s="2">
         <v>0.18</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="7"/>
         <v>8.64</v>
       </c>
       <c r="I41" s="11"/>
@@ -4280,14 +4280,14 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G42" s="2">
         <v>0.18</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="7"/>
         <v>5.76</v>
       </c>
       <c r="I42" s="11"/>
@@ -4305,14 +4305,14 @@
       <c r="D43" s="34"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -4330,7 +4330,7 @@
       <c r="D44" s="35"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
